--- a/Offline/BusinessManagement/Information/Anodiam-Info/LogBook/Employee_Log.xlsx
+++ b/Offline/BusinessManagement/Information/Anodiam-Info/LogBook/Employee_Log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\Offline\BusinessManagement\Information\Anodiam-Info\LogBook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDDFD229-2D3D-4805-973B-63CA5A001E4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62F3F876-3B26-40D5-BA4D-E43AD5293B7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -80,7 +80,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,12 +95,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -123,7 +117,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -133,6 +127,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -431,7 +426,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -477,8 +472,12 @@
       <c r="B3" s="1">
         <v>45267</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
+      <c r="C3" s="5">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0.375</v>
+      </c>
       <c r="E3" s="1" t="s">
         <v>6</v>
       </c>
@@ -571,6 +570,11 @@
       <c r="E13" s="1"/>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576" xr:uid="{71F55B6C-455F-4573-A62A-58983CA11660}">
+      <formula1>"Present,Absent"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
